--- a/Files/Madden25/IE/Season9/ActivePlayerCounts.xlsx
+++ b/Files/Madden25/IE/Season9/ActivePlayerCounts.xlsx
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -1403,7 +1403,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D106" t="b">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D113" t="b">
         <v>0</v>
@@ -2619,7 +2619,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115" t="b">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D129" t="b">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D136" t="b">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D145" t="b">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D148" t="b">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D149" t="b">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156" t="b">
         <v>0</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D169" t="b">
         <v>0</v>
@@ -3759,7 +3759,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D175" t="b">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D177" t="b">
         <v>0</v>
@@ -3987,7 +3987,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D187" t="b">
         <v>0</v>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D188" t="b">
         <v>0</v>
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D191" t="b">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D193" t="b">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D194" t="b">
         <v>0</v>
@@ -4158,7 +4158,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D196" t="b">
         <v>0</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D197" t="b">
         <v>0</v>
@@ -4215,7 +4215,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D199" t="b">
         <v>0</v>
@@ -4234,7 +4234,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D200" t="b">
         <v>0</v>
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D202" t="b">
         <v>0</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D212" t="b">
         <v>0</v>
@@ -4595,7 +4595,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D219" t="b">
         <v>0</v>
@@ -4823,7 +4823,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D231" t="b">
         <v>0</v>
@@ -5070,7 +5070,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D244" t="b">
         <v>0</v>
@@ -5089,7 +5089,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D245" t="b">
         <v>0</v>
@@ -5184,7 +5184,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D250" t="b">
         <v>0</v>
@@ -5222,7 +5222,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D252" t="b">
         <v>0</v>
@@ -5355,7 +5355,7 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D259" t="b">
         <v>0</v>
@@ -5450,7 +5450,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D264" t="b">
         <v>0</v>
@@ -5488,7 +5488,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D266" t="b">
         <v>0</v>
@@ -5526,12 +5526,14 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D268" t="b">
-        <v>0</v>
-      </c>
-      <c r="E268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E268" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -5583,7 +5585,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D271" t="b">
         <v>0</v>
@@ -5602,7 +5604,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D272" t="b">
         <v>0</v>
@@ -5659,7 +5661,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D275" t="b">
         <v>0</v>
@@ -5944,7 +5946,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D290" t="b">
         <v>0</v>
@@ -6039,7 +6041,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D295" t="b">
         <v>0</v>
@@ -6077,7 +6079,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D297" t="b">
         <v>0</v>
@@ -6134,7 +6136,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D300" t="b">
         <v>0</v>
@@ -6153,7 +6155,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D301" t="b">
         <v>0</v>
@@ -6343,7 +6345,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D311" t="b">
         <v>0</v>
@@ -6362,7 +6364,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D312" t="b">
         <v>0</v>
@@ -6381,7 +6383,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D313" t="b">
         <v>0</v>
@@ -6590,7 +6592,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D324" t="b">
         <v>0</v>
@@ -6723,7 +6725,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D331" t="b">
         <v>0</v>
@@ -6761,7 +6763,7 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D333" t="b">
         <v>0</v>
@@ -6799,7 +6801,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D335" t="b">
         <v>0</v>
@@ -6875,7 +6877,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D339" t="b">
         <v>0</v>
@@ -6894,7 +6896,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D340" t="b">
         <v>0</v>
@@ -6989,7 +6991,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D345" t="b">
         <v>0</v>
@@ -7084,7 +7086,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D350" t="b">
         <v>0</v>
@@ -7103,7 +7105,7 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D351" t="b">
         <v>0</v>
@@ -7293,7 +7295,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D361" t="b">
         <v>0</v>
@@ -7521,7 +7523,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D373" t="b">
         <v>0</v>
@@ -7578,7 +7580,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D376" t="b">
         <v>0</v>
@@ -7597,7 +7599,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D377" t="b">
         <v>0</v>
@@ -7692,7 +7694,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D382" t="b">
         <v>0</v>
@@ -7863,7 +7865,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D391" t="b">
         <v>0</v>
@@ -7901,7 +7903,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D393" t="b">
         <v>0</v>
@@ -7920,7 +7922,7 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D394" t="b">
         <v>0</v>
@@ -7939,7 +7941,7 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D395" t="b">
         <v>0</v>
@@ -7977,7 +7979,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D397" t="b">
         <v>0</v>
@@ -8015,7 +8017,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D399" t="b">
         <v>0</v>
@@ -8205,7 +8207,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D409" t="b">
         <v>0</v>
@@ -8243,7 +8245,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D411" t="b">
         <v>0</v>
@@ -8319,7 +8321,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D415" t="b">
         <v>0</v>
@@ -8357,7 +8359,7 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D417" t="b">
         <v>0</v>
@@ -8376,7 +8378,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D418" t="b">
         <v>0</v>
@@ -8680,7 +8682,7 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D434" t="b">
         <v>0</v>
@@ -8813,7 +8815,7 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D441" t="b">
         <v>0</v>
@@ -9041,12 +9043,14 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D453" t="b">
-        <v>0</v>
-      </c>
-      <c r="E453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E453" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -9060,7 +9064,7 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D454" t="b">
         <v>0</v>
@@ -9079,7 +9083,7 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D455" t="b">
         <v>0</v>
@@ -9117,7 +9121,7 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D457" t="b">
         <v>0</v>
@@ -9231,7 +9235,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D463" t="b">
         <v>0</v>
@@ -9250,7 +9254,7 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D464" t="b">
         <v>0</v>
@@ -9440,7 +9444,7 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D474" t="b">
         <v>0</v>
@@ -9497,7 +9501,7 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D477" t="b">
         <v>0</v>
@@ -9535,7 +9539,7 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D479" t="b">
         <v>0</v>
@@ -9573,7 +9577,7 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D481" t="b">
         <v>0</v>
@@ -9744,7 +9748,7 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D490" t="b">
         <v>0</v>
@@ -9858,7 +9862,7 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D496" t="b">
         <v>0</v>
@@ -9877,7 +9881,7 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D497" t="b">
         <v>0</v>
@@ -9915,7 +9919,7 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D499" t="b">
         <v>0</v>
@@ -10029,7 +10033,7 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D505" t="b">
         <v>0</v>
@@ -10105,7 +10109,7 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D509" t="b">
         <v>0</v>
@@ -10124,7 +10128,7 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D510" t="b">
         <v>0</v>
@@ -10181,14 +10185,12 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D513" t="b">
-        <v>1</v>
-      </c>
-      <c r="E513" t="b">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -10221,7 +10223,7 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D515" t="b">
         <v>0</v>
@@ -10240,7 +10242,7 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D516" t="b">
         <v>0</v>
@@ -10297,7 +10299,7 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D519" t="b">
         <v>0</v>
@@ -10316,7 +10318,7 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D520" t="b">
         <v>0</v>
@@ -10563,7 +10565,7 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D533" t="b">
         <v>0</v>
@@ -10639,7 +10641,7 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D537" t="b">
         <v>0</v>
@@ -10696,7 +10698,7 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D540" t="b">
         <v>0</v>
@@ -10734,7 +10736,7 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D542" t="b">
         <v>0</v>
@@ -10905,7 +10907,7 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D551" t="b">
         <v>0</v>
@@ -10981,7 +10983,7 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D555" t="b">
         <v>0</v>
@@ -11095,7 +11097,7 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D561" t="b">
         <v>0</v>
@@ -11152,7 +11154,7 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D564" t="b">
         <v>0</v>
@@ -11418,7 +11420,7 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D578" t="b">
         <v>0</v>
@@ -11741,7 +11743,7 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D595" t="b">
         <v>0</v>
@@ -11760,7 +11762,7 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D596" t="b">
         <v>0</v>
@@ -11798,7 +11800,7 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D598" t="b">
         <v>0</v>
@@ -11817,7 +11819,7 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D599" t="b">
         <v>0</v>
@@ -12064,7 +12066,7 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D612" t="b">
         <v>0</v>
@@ -12197,12 +12199,14 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D619" t="b">
-        <v>0</v>
-      </c>
-      <c r="E619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E619" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
@@ -12292,7 +12296,7 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D624" t="b">
         <v>0</v>
@@ -12387,7 +12391,7 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D629" t="b">
         <v>0</v>
@@ -12425,7 +12429,7 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D631" t="b">
         <v>0</v>
@@ -12558,7 +12562,7 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D638" t="b">
         <v>0</v>
@@ -12710,7 +12714,7 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D646" t="b">
         <v>0</v>
@@ -12900,7 +12904,7 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D656" t="b">
         <v>0</v>
